--- a/data/trans_dic/P56$amigo-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P56$amigo-Provincia-trans_dic.xlsx
@@ -739,21 +739,21 @@
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="inlineStr"/>
       <c r="F6" s="5" t="n">
-        <v>0.4467558906317671</v>
+        <v>0.6124421385286031</v>
       </c>
       <c r="G6" s="5" t="inlineStr"/>
       <c r="H6" s="5" t="n">
-        <v>0.2107530310634182</v>
+        <v>0.2568850098012964</v>
       </c>
       <c r="I6" s="5" t="inlineStr"/>
       <c r="J6" s="5" t="inlineStr"/>
       <c r="K6" s="5" t="inlineStr"/>
       <c r="L6" s="5" t="n">
-        <v>0.1556588792735387</v>
+        <v>0.2038084407412028</v>
       </c>
       <c r="M6" s="5" t="inlineStr"/>
       <c r="N6" s="5" t="n">
-        <v>0.2369993270853166</v>
+        <v>0.2210496108607233</v>
       </c>
     </row>
     <row r="7">
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.03977372459321851</v>
+        <v>0.03977372459321852</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.04663648079422556</v>
@@ -825,7 +825,7 @@
       </c>
       <c r="I8" s="5" t="inlineStr"/>
       <c r="J8" s="5" t="n">
-        <v>0.01283198706487053</v>
+        <v>0.0128125027249825</v>
       </c>
       <c r="K8" s="5" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
       </c>
       <c r="M8" s="5" t="inlineStr"/>
       <c r="N8" s="5" t="n">
-        <v>0.02053676234058191</v>
+        <v>0.02053537437814852</v>
       </c>
     </row>
     <row r="9">
@@ -846,30 +846,30 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.5818942738803056</v>
+        <v>0.5854022506571105</v>
       </c>
       <c r="D9" s="5" t="inlineStr"/>
       <c r="E9" s="5" t="inlineStr"/>
       <c r="F9" s="5" t="n">
-        <v>0.4242298701875014</v>
+        <v>0.4727761215669807</v>
       </c>
       <c r="G9" s="5" t="inlineStr"/>
       <c r="H9" s="5" t="n">
-        <v>0.1755938152402912</v>
+        <v>0.1839350803175163</v>
       </c>
       <c r="I9" s="5" t="inlineStr"/>
       <c r="J9" s="5" t="n">
-        <v>0.1058158167401315</v>
+        <v>0.1109618641674524</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2535956277105481</v>
+        <v>0.2366314137597039</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1371077310298429</v>
+        <v>0.1477315338743323</v>
       </c>
       <c r="M9" s="5" t="inlineStr"/>
       <c r="N9" s="5" t="n">
-        <v>0.1425064900290368</v>
+        <v>0.133690953102856</v>
       </c>
     </row>
     <row r="10">
@@ -937,7 +937,7 @@
       <c r="H11" s="5" t="inlineStr"/>
       <c r="I11" s="5" t="inlineStr"/>
       <c r="J11" s="5" t="n">
-        <v>0.01203649224794282</v>
+        <v>0.01184062078560753</v>
       </c>
       <c r="K11" s="5" t="n">
         <v>0</v>
@@ -945,7 +945,7 @@
       <c r="L11" s="5" t="inlineStr"/>
       <c r="M11" s="5" t="inlineStr"/>
       <c r="N11" s="5" t="n">
-        <v>0.007857048099066016</v>
+        <v>0.007714334741499043</v>
       </c>
     </row>
     <row r="12">
@@ -960,20 +960,20 @@
       <c r="E12" s="5" t="inlineStr"/>
       <c r="F12" s="5" t="inlineStr"/>
       <c r="G12" s="5" t="n">
-        <v>0.3885674542107218</v>
+        <v>0.3259624035360664</v>
       </c>
       <c r="H12" s="5" t="inlineStr"/>
       <c r="I12" s="5" t="inlineStr"/>
       <c r="J12" s="5" t="n">
-        <v>0.1215185513939107</v>
+        <v>0.1258928009880548</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3450314462963658</v>
+        <v>0.2767685360170811</v>
       </c>
       <c r="L12" s="5" t="inlineStr"/>
       <c r="M12" s="5" t="inlineStr"/>
       <c r="N12" s="5" t="n">
-        <v>0.08570841113304754</v>
+        <v>0.08263978064845627</v>
       </c>
     </row>
     <row r="13">
@@ -997,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.06467084740479774</v>
+        <v>0.06467084740479773</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.1032431991955156</v>
@@ -1067,25 +1067,25 @@
       <c r="D15" s="5" t="inlineStr"/>
       <c r="E15" s="5" t="inlineStr"/>
       <c r="F15" s="5" t="n">
-        <v>0.3242864486163595</v>
+        <v>0.288552549459831</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4777590872090549</v>
+        <v>0.5172191004351832</v>
       </c>
       <c r="H15" s="5" t="inlineStr"/>
       <c r="I15" s="5" t="n">
-        <v>0.2282005701543308</v>
+        <v>0.2432348311864513</v>
       </c>
       <c r="J15" s="5" t="inlineStr"/>
       <c r="K15" s="5" t="n">
-        <v>0.3957307553274547</v>
+        <v>0.3463313960954686</v>
       </c>
       <c r="L15" s="5" t="inlineStr"/>
       <c r="M15" s="5" t="n">
-        <v>0.1355290275384625</v>
+        <v>0.1190578123755493</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1190708911054397</v>
+        <v>0.1032042857855578</v>
       </c>
     </row>
     <row r="16">
@@ -1121,7 +1121,7 @@
         <v>0.1981497933107703</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.02250050191493292</v>
+        <v>0.02250050191493293</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0</v>
@@ -1177,23 +1177,23 @@
       <c r="D18" s="5" t="inlineStr"/>
       <c r="E18" s="5" t="inlineStr"/>
       <c r="F18" s="5" t="n">
-        <v>0.3262239852598737</v>
+        <v>0.2605820995927099</v>
       </c>
       <c r="G18" s="5" t="inlineStr"/>
       <c r="H18" s="5" t="inlineStr"/>
       <c r="I18" s="5" t="n">
-        <v>0.577841097016127</v>
+        <v>0.5307581552355746</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1121017805893259</v>
+        <v>0.1108124475605857</v>
       </c>
       <c r="K18" s="5" t="inlineStr"/>
       <c r="L18" s="5" t="inlineStr"/>
       <c r="M18" s="5" t="n">
-        <v>0.5354709201357853</v>
+        <v>0.5230879307214377</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1345868398035747</v>
+        <v>0.107770484339188</v>
       </c>
     </row>
     <row r="19">
@@ -1279,7 +1279,7 @@
       <c r="D21" s="5" t="inlineStr"/>
       <c r="E21" s="5" t="inlineStr"/>
       <c r="F21" s="5" t="n">
-        <v>0.1278027133570007</v>
+        <v>0.1226032739276323</v>
       </c>
       <c r="G21" s="5" t="inlineStr"/>
       <c r="H21" s="5" t="inlineStr"/>
@@ -1289,7 +1289,7 @@
       <c r="L21" s="5" t="inlineStr"/>
       <c r="M21" s="5" t="inlineStr"/>
       <c r="N21" s="5" t="n">
-        <v>0.04390288541957154</v>
+        <v>0.04163536733300902</v>
       </c>
     </row>
     <row r="22">
@@ -1337,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.08047655098450175</v>
+        <v>0.08047655098450178</v>
       </c>
     </row>
     <row r="23">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="I23" s="5" t="inlineStr"/>
       <c r="J23" s="5" t="n">
-        <v>0.05028044555817861</v>
+        <v>0.05069174457580811</v>
       </c>
       <c r="K23" s="5" t="inlineStr"/>
       <c r="L23" s="5" t="n">
@@ -1365,7 +1365,7 @@
       </c>
       <c r="M23" s="5" t="inlineStr"/>
       <c r="N23" s="5" t="n">
-        <v>0.03912429582402905</v>
+        <v>0.03921508362084952</v>
       </c>
     </row>
     <row r="24">
@@ -1381,19 +1381,19 @@
       <c r="F24" s="5" t="inlineStr"/>
       <c r="G24" s="5" t="inlineStr"/>
       <c r="H24" s="5" t="n">
-        <v>0.1643720441222429</v>
+        <v>0.1814208183753346</v>
       </c>
       <c r="I24" s="5" t="inlineStr"/>
       <c r="J24" s="5" t="n">
-        <v>0.1786764633190888</v>
+        <v>0.1877689110676297</v>
       </c>
       <c r="K24" s="5" t="inlineStr"/>
       <c r="L24" s="5" t="n">
-        <v>0.09717668267172316</v>
+        <v>0.1059713995243494</v>
       </c>
       <c r="M24" s="5" t="inlineStr"/>
       <c r="N24" s="5" t="n">
-        <v>0.1522728978308585</v>
+        <v>0.147047078302197</v>
       </c>
     </row>
     <row r="25">
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.0181798778479702</v>
+        <v>0.01817987784797019</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.04210084716462126</v>
@@ -1484,28 +1484,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.3167162640493074</v>
+        <v>0.3223313841788361</v>
       </c>
       <c r="D27" s="5" t="inlineStr"/>
       <c r="E27" s="5" t="inlineStr"/>
       <c r="F27" s="5" t="inlineStr"/>
       <c r="G27" s="5" t="inlineStr"/>
       <c r="H27" s="5" t="n">
-        <v>0.2169602749259308</v>
+        <v>0.1805402188570742</v>
       </c>
       <c r="I27" s="5" t="inlineStr"/>
       <c r="J27" s="5" t="n">
-        <v>0.06337548722073912</v>
+        <v>0.05975895459897748</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.1543497178752681</v>
+        <v>0.1275784785677619</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.1185628190621422</v>
+        <v>0.1389321908990954</v>
       </c>
       <c r="M27" s="5" t="inlineStr"/>
       <c r="N27" s="5" t="n">
-        <v>0.04668741021241182</v>
+        <v>0.04103908584067521</v>
       </c>
     </row>
     <row r="28">
@@ -1541,7 +1541,7 @@
         <v>0.01969543572578491</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>0.03717615998184404</v>
+        <v>0.03717615998184405</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>0.03608766255416745</v>
@@ -1564,36 +1564,36 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.02065455728898553</v>
+        <v>0.0209528268313097</v>
       </c>
       <c r="D29" s="5" t="inlineStr"/>
       <c r="E29" s="5" t="inlineStr"/>
       <c r="F29" s="5" t="n">
-        <v>0.01385945346027956</v>
+        <v>0.01236858423801795</v>
       </c>
       <c r="G29" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.01040494868482972</v>
+        <v>0.009626596344775619</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0</v>
+        <v>0.005615903245633764</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.02196044001853972</v>
+        <v>0.02159277852515854</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.01408907081817239</v>
+        <v>0.01365715648792474</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.007504810778422361</v>
+        <v>0.007367373766466899</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.004005950159071041</v>
+        <v>0.004004964221675508</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.02350296335789327</v>
+        <v>0.02481337920161776</v>
       </c>
     </row>
     <row r="30">
@@ -1604,36 +1604,36 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.1495174870297562</v>
+        <v>0.1598869764874277</v>
       </c>
       <c r="D30" s="5" t="inlineStr"/>
       <c r="E30" s="5" t="inlineStr"/>
       <c r="F30" s="5" t="n">
-        <v>0.08186678863477623</v>
+        <v>0.07899752120273411</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.0680564885488408</v>
+        <v>0.07230169404172258</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.05814385693959951</v>
+        <v>0.05795821696181744</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.05332688124286409</v>
+        <v>0.04910339140021838</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.05547016036116886</v>
+        <v>0.05815760713793084</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.07695723568330048</v>
+        <v>0.07981962354644098</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.04355894820224604</v>
+        <v>0.04179232966067827</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.03599789548860702</v>
+        <v>0.03743495573652385</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.0557237795047418</v>
+        <v>0.05474552275018014</v>
       </c>
     </row>
     <row r="31">
@@ -1939,21 +1939,21 @@
       <c r="D7" s="6" t="inlineStr"/>
       <c r="E7" s="6" t="inlineStr"/>
       <c r="F7" s="6" t="n">
-        <v>2352</v>
+        <v>3225</v>
       </c>
       <c r="G7" s="6" t="inlineStr"/>
       <c r="H7" s="6" t="n">
-        <v>4476</v>
+        <v>5455</v>
       </c>
       <c r="I7" s="6" t="inlineStr"/>
       <c r="J7" s="6" t="inlineStr"/>
       <c r="K7" s="6" t="inlineStr"/>
       <c r="L7" s="6" t="n">
-        <v>4403</v>
+        <v>5765</v>
       </c>
       <c r="M7" s="6" t="inlineStr"/>
       <c r="N7" s="6" t="n">
-        <v>3252</v>
+        <v>3033</v>
       </c>
     </row>
     <row r="8">
@@ -2069,7 +2069,7 @@
       </c>
       <c r="I10" s="6" t="inlineStr"/>
       <c r="J10" s="6" t="n">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K10" s="6" t="n">
         <v>0</v>
@@ -2090,30 +2090,30 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>4003</v>
+        <v>4028</v>
       </c>
       <c r="D11" s="6" t="inlineStr"/>
       <c r="E11" s="6" t="inlineStr"/>
       <c r="F11" s="6" t="n">
-        <v>5548</v>
+        <v>6183</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="n">
-        <v>6481</v>
+        <v>6789</v>
       </c>
       <c r="I11" s="6" t="inlineStr"/>
       <c r="J11" s="6" t="n">
-        <v>4731</v>
+        <v>4962</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>5475</v>
+        <v>5108</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>6666</v>
+        <v>7183</v>
       </c>
       <c r="M11" s="6" t="inlineStr"/>
       <c r="N11" s="6" t="n">
-        <v>8236</v>
+        <v>7726</v>
       </c>
     </row>
     <row r="12">
@@ -2225,7 +2225,7 @@
       <c r="H14" s="6" t="inlineStr"/>
       <c r="I14" s="6" t="inlineStr"/>
       <c r="J14" s="6" t="n">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="K14" s="6" t="n">
         <v>0</v>
@@ -2233,7 +2233,7 @@
       <c r="L14" s="6" t="inlineStr"/>
       <c r="M14" s="6" t="inlineStr"/>
       <c r="N14" s="6" t="n">
-        <v>404</v>
+        <v>397</v>
       </c>
     </row>
     <row r="15">
@@ -2248,20 +2248,20 @@
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="inlineStr"/>
       <c r="G15" s="6" t="n">
-        <v>4762</v>
+        <v>3994</v>
       </c>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="inlineStr"/>
       <c r="J15" s="6" t="n">
-        <v>4076</v>
+        <v>4223</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>5240</v>
+        <v>4203</v>
       </c>
       <c r="L15" s="6" t="inlineStr"/>
       <c r="M15" s="6" t="inlineStr"/>
       <c r="N15" s="6" t="n">
-        <v>4407</v>
+        <v>4249</v>
       </c>
     </row>
     <row r="16">
@@ -2399,25 +2399,25 @@
       <c r="D19" s="6" t="inlineStr"/>
       <c r="E19" s="6" t="inlineStr"/>
       <c r="F19" s="6" t="n">
-        <v>3087</v>
+        <v>2747</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>5166</v>
+        <v>5593</v>
       </c>
       <c r="H19" s="6" t="inlineStr"/>
       <c r="I19" s="6" t="n">
-        <v>5688</v>
+        <v>6062</v>
       </c>
       <c r="J19" s="6" t="inlineStr"/>
       <c r="K19" s="6" t="n">
-        <v>5300</v>
+        <v>4639</v>
       </c>
       <c r="L19" s="6" t="inlineStr"/>
       <c r="M19" s="6" t="n">
-        <v>4734</v>
+        <v>4159</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>3613</v>
+        <v>3131</v>
       </c>
     </row>
     <row r="20">
@@ -2553,23 +2553,23 @@
       <c r="D23" s="6" t="inlineStr"/>
       <c r="E23" s="6" t="inlineStr"/>
       <c r="F23" s="6" t="n">
-        <v>2504</v>
+        <v>2000</v>
       </c>
       <c r="G23" s="6" t="inlineStr"/>
       <c r="H23" s="6" t="inlineStr"/>
       <c r="I23" s="6" t="n">
-        <v>7000</v>
+        <v>6430</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>1930</v>
+        <v>1908</v>
       </c>
       <c r="K23" s="6" t="inlineStr"/>
       <c r="L23" s="6" t="inlineStr"/>
       <c r="M23" s="6" t="n">
-        <v>6915</v>
+        <v>6755</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>3350</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="24">
@@ -2699,7 +2699,7 @@
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="n">
-        <v>2116</v>
+        <v>2030</v>
       </c>
       <c r="G27" s="6" t="inlineStr"/>
       <c r="H27" s="6" t="inlineStr"/>
@@ -2709,7 +2709,7 @@
       <c r="L27" s="6" t="inlineStr"/>
       <c r="M27" s="6" t="inlineStr"/>
       <c r="N27" s="6" t="n">
-        <v>2156</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="28">
@@ -2821,7 +2821,7 @@
       </c>
       <c r="I30" s="6" t="inlineStr"/>
       <c r="J30" s="6" t="n">
-        <v>2596</v>
+        <v>2617</v>
       </c>
       <c r="K30" s="6" t="inlineStr"/>
       <c r="L30" s="6" t="n">
@@ -2829,7 +2829,7 @@
       </c>
       <c r="M30" s="6" t="inlineStr"/>
       <c r="N30" s="6" t="n">
-        <v>2603</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="31">
@@ -2845,19 +2845,19 @@
       <c r="F31" s="6" t="inlineStr"/>
       <c r="G31" s="6" t="inlineStr"/>
       <c r="H31" s="6" t="n">
-        <v>5824</v>
+        <v>6428</v>
       </c>
       <c r="I31" s="6" t="inlineStr"/>
       <c r="J31" s="6" t="n">
-        <v>9225</v>
+        <v>9695</v>
       </c>
       <c r="K31" s="6" t="inlineStr"/>
       <c r="L31" s="6" t="n">
-        <v>4954</v>
+        <v>5402</v>
       </c>
       <c r="M31" s="6" t="inlineStr"/>
       <c r="N31" s="6" t="n">
-        <v>10132</v>
+        <v>9785</v>
       </c>
     </row>
     <row r="32">
@@ -2992,28 +2992,28 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>6085</v>
+        <v>6193</v>
       </c>
       <c r="D35" s="6" t="inlineStr"/>
       <c r="E35" s="6" t="inlineStr"/>
       <c r="F35" s="6" t="inlineStr"/>
       <c r="G35" s="6" t="inlineStr"/>
       <c r="H35" s="6" t="n">
-        <v>6522</v>
+        <v>5428</v>
       </c>
       <c r="I35" s="6" t="inlineStr"/>
       <c r="J35" s="6" t="n">
-        <v>4214</v>
+        <v>3974</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>7585</v>
+        <v>6270</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>4618</v>
+        <v>5411</v>
       </c>
       <c r="M35" s="6" t="inlineStr"/>
       <c r="N35" s="6" t="n">
-        <v>4211</v>
+        <v>3702</v>
       </c>
     </row>
     <row r="36">
@@ -3116,36 +3116,36 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>997</v>
+        <v>1012</v>
       </c>
       <c r="D38" s="6" t="inlineStr"/>
       <c r="E38" s="6" t="inlineStr"/>
       <c r="F38" s="6" t="n">
-        <v>1505</v>
+        <v>1343</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>2136</v>
+        <v>1976</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0</v>
+        <v>965</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>6049</v>
+        <v>5947</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>1998</v>
+        <v>1937</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>2129</v>
+        <v>2090</v>
       </c>
       <c r="M38" s="6" t="n">
         <v>977</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>9025</v>
+        <v>9528</v>
       </c>
     </row>
     <row r="39">
@@ -3156,36 +3156,36 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>7219</v>
+        <v>7720</v>
       </c>
       <c r="D39" s="6" t="inlineStr"/>
       <c r="E39" s="6" t="inlineStr"/>
       <c r="F39" s="6" t="n">
-        <v>8889</v>
+        <v>8577</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>6366</v>
+        <v>6763</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>11934</v>
+        <v>11896</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>9161</v>
+        <v>8435</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>15278</v>
+        <v>16018</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>10914</v>
+        <v>11320</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>12360</v>
+        <v>11859</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>8779</v>
+        <v>9130</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>21398</v>
+        <v>21023</v>
       </c>
     </row>
     <row r="40">
